--- a/Code/Results/Cases/Case_3_208/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_208/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.59866951215605</v>
+        <v>1.328088799248235</v>
       </c>
       <c r="C2">
-        <v>0.9759351589121934</v>
+        <v>0.3005915337488432</v>
       </c>
       <c r="D2">
-        <v>0.01956295938251351</v>
+        <v>0.02691717614016298</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.855334649966082</v>
+        <v>1.26782495163323</v>
       </c>
       <c r="G2">
-        <v>0.0007741164264526624</v>
+        <v>0.002432988663422541</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.101786535662256</v>
+        <v>1.193643105224794</v>
       </c>
       <c r="C3">
-        <v>0.8421454571702327</v>
+        <v>0.262740149758713</v>
       </c>
       <c r="D3">
-        <v>0.02116663526667928</v>
+        <v>0.02753636415298999</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.647623478093735</v>
+        <v>1.228638135340702</v>
       </c>
       <c r="G3">
-        <v>0.0007836172170738105</v>
+        <v>0.002438568569355478</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.801378855550297</v>
+        <v>1.111593090356678</v>
       </c>
       <c r="C4">
-        <v>0.7611232055461699</v>
+        <v>0.2395215065747891</v>
       </c>
       <c r="D4">
-        <v>0.02228878092931197</v>
+        <v>0.0279428179114749</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.526306085392505</v>
+        <v>1.205743070340091</v>
       </c>
       <c r="G4">
-        <v>0.0007895797928095148</v>
+        <v>0.002442170173400411</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.679948868554504</v>
+        <v>1.07828126715691</v>
       </c>
       <c r="C5">
-        <v>0.7283378427598564</v>
+        <v>0.2300648786759609</v>
       </c>
       <c r="D5">
-        <v>0.02277740315277832</v>
+        <v>0.02811497430915111</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.478255163737416</v>
+        <v>1.196702219728536</v>
       </c>
       <c r="G5">
-        <v>0.0007920444154529154</v>
+        <v>0.002443682151862876</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.659840063712409</v>
+        <v>1.072757323128542</v>
       </c>
       <c r="C6">
-        <v>0.7229064674999677</v>
+        <v>0.2284949118759698</v>
       </c>
       <c r="D6">
-        <v>0.0228603433116934</v>
+        <v>0.02814395232624989</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.470355256158129</v>
+        <v>1.195218333684878</v>
       </c>
       <c r="G6">
-        <v>0.000792455832810627</v>
+        <v>0.002443935894596592</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.799737441019033</v>
+        <v>1.111143334485291</v>
       </c>
       <c r="C7">
-        <v>0.7606801755933645</v>
+        <v>0.2393939508685037</v>
       </c>
       <c r="D7">
-        <v>0.02229524778996073</v>
+        <v>0.02794511336970196</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.525652659865401</v>
+        <v>1.205619977192271</v>
       </c>
       <c r="G7">
-        <v>0.0007896128875664128</v>
+        <v>0.002442190384804346</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.42625326984313</v>
+        <v>1.281627116141408</v>
       </c>
       <c r="C8">
-        <v>0.9295384684711507</v>
+        <v>0.2875354753128079</v>
       </c>
       <c r="D8">
-        <v>0.02008531356352883</v>
+        <v>0.02712517013160287</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.782313467781506</v>
+        <v>1.254068908013267</v>
       </c>
       <c r="G8">
-        <v>0.0007773670156944214</v>
+        <v>0.002434876282431737</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.701641294927697</v>
+        <v>1.620004439777802</v>
       </c>
       <c r="C9">
-        <v>1.2722260105337</v>
+        <v>0.3821427970212312</v>
       </c>
       <c r="D9">
-        <v>0.01700926801173352</v>
+        <v>0.02572939304608468</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.343942140086753</v>
+        <v>1.358516464262038</v>
       </c>
       <c r="G9">
-        <v>0.0007542562294631054</v>
+        <v>0.002421918690452449</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.682746500475218</v>
+        <v>1.871239517756464</v>
       </c>
       <c r="C10">
-        <v>1.535301197584261</v>
+        <v>0.4518168925330315</v>
       </c>
       <c r="D10">
-        <v>0.01578807186066555</v>
+        <v>0.02483829542030058</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.806493293589199</v>
+        <v>1.441278503134072</v>
       </c>
       <c r="G10">
-        <v>0.0007376345729776418</v>
+        <v>0.002413232988602854</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.142826035608834</v>
+        <v>1.986140005250547</v>
       </c>
       <c r="C11">
-        <v>1.658587131596846</v>
+        <v>0.4835595720141441</v>
       </c>
       <c r="D11">
-        <v>0.0155331620257364</v>
+        <v>0.02446319247398421</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.031610371166863</v>
+        <v>1.48029611276641</v>
       </c>
       <c r="G11">
-        <v>0.0007300992127617873</v>
+        <v>0.002409460578184491</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.319443821884875</v>
+        <v>2.029740373998266</v>
       </c>
       <c r="C12">
-        <v>1.705907501191689</v>
+        <v>0.4955872380373307</v>
       </c>
       <c r="D12">
-        <v>0.0154875961224441</v>
+        <v>0.02432559549528968</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.119355932799806</v>
+        <v>1.495272534411953</v>
       </c>
       <c r="G12">
-        <v>0.0007272443761299272</v>
+        <v>0.002408057600583539</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.281292102493751</v>
+        <v>2.020346217090719</v>
       </c>
       <c r="C13">
-        <v>1.695685934319499</v>
+        <v>0.4929965265847045</v>
       </c>
       <c r="D13">
-        <v>0.01549500406926896</v>
+        <v>0.02435503019190222</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.10034040478601</v>
+        <v>1.492038069591729</v>
       </c>
       <c r="G13">
-        <v>0.000727859366870984</v>
+        <v>0.002408358622772135</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.157305844957307</v>
+        <v>1.989725217470948</v>
       </c>
       <c r="C14">
-        <v>1.662466755520597</v>
+        <v>0.4845489436963817</v>
       </c>
       <c r="D14">
-        <v>0.01552834241732626</v>
+        <v>0.02445178262867032</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.038776740757754</v>
+        <v>1.481524171897547</v>
       </c>
       <c r="G14">
-        <v>0.0007298644031031165</v>
+        <v>0.002409344643124601</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.081686185184537</v>
+        <v>1.970980758251812</v>
       </c>
       <c r="C15">
-        <v>1.642205461918991</v>
+        <v>0.4793755362530874</v>
       </c>
       <c r="D15">
-        <v>0.01555565422055594</v>
+        <v>0.02451162817021135</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.001405127079408</v>
+        <v>1.475110454493091</v>
       </c>
       <c r="G15">
-        <v>0.0007310922033072142</v>
+        <v>0.002409951932201507</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.652990293917696</v>
+        <v>1.863742991564095</v>
       </c>
       <c r="C16">
-        <v>1.527326266412615</v>
+        <v>0.4497434386053669</v>
       </c>
       <c r="D16">
-        <v>0.01581140929182112</v>
+        <v>0.02486342629915761</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.792108637555145</v>
+        <v>1.43875653514678</v>
       </c>
       <c r="G16">
-        <v>0.000738127131624738</v>
+        <v>0.002413483108615777</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.393800947983209</v>
+        <v>1.798114331581246</v>
       </c>
       <c r="C17">
-        <v>1.457852753002328</v>
+        <v>0.4315776848216046</v>
       </c>
       <c r="D17">
-        <v>0.0160503748145473</v>
+        <v>0.02508706090430124</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.66773164270154</v>
+        <v>1.416808326593667</v>
       </c>
       <c r="G17">
-        <v>0.0007424461021221931</v>
+        <v>0.002415695046062581</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.24598965684595</v>
+        <v>1.760423979538189</v>
       </c>
       <c r="C18">
-        <v>1.418225436377497</v>
+        <v>0.4211336676367523</v>
       </c>
       <c r="D18">
-        <v>0.01621557927875372</v>
+        <v>0.0252185322696743</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.597550551165597</v>
+        <v>1.404312860797418</v>
       </c>
       <c r="G18">
-        <v>0.0007449330472298793</v>
+        <v>0.002416984129146196</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.196149417630124</v>
+        <v>1.747672493373045</v>
       </c>
       <c r="C19">
-        <v>1.404862126520072</v>
+        <v>0.4175982494487016</v>
       </c>
       <c r="D19">
-        <v>0.01627606885903532</v>
+        <v>0.02526353157433014</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.574010827916055</v>
+        <v>1.40010405572626</v>
       </c>
       <c r="G19">
-        <v>0.0007457757047965069</v>
+        <v>0.002417423486480366</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.42125811282574</v>
+        <v>1.805094647504461</v>
       </c>
       <c r="C20">
-        <v>1.465213191450857</v>
+        <v>0.4335109964128492</v>
       </c>
       <c r="D20">
-        <v>0.01602201213855281</v>
+        <v>0.02506295973206818</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.680828726160456</v>
+        <v>1.419131412728035</v>
       </c>
       <c r="G20">
-        <v>0.0007419860860301553</v>
+        <v>0.002415457840283029</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.193654937209089</v>
+        <v>1.998716887221917</v>
       </c>
       <c r="C21">
-        <v>1.672205790631494</v>
+        <v>0.4870299980938171</v>
       </c>
       <c r="D21">
-        <v>0.0155170981262458</v>
+        <v>0.02442324265864038</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.056788281387668</v>
+        <v>1.484606859473274</v>
       </c>
       <c r="G21">
-        <v>0.0007292755569687292</v>
+        <v>0.002409054332810512</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.712670881841746</v>
+        <v>2.125786060306609</v>
       </c>
       <c r="C22">
-        <v>1.811255523076227</v>
+        <v>0.5220511815921896</v>
       </c>
       <c r="D22">
-        <v>0.0154888678018068</v>
+        <v>0.02403111216542442</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.317291472339804</v>
+        <v>1.528574276568378</v>
       </c>
       <c r="G22">
-        <v>0.0007209575615344704</v>
+        <v>0.002405018138138759</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.434205757629741</v>
+        <v>2.057918058970188</v>
       </c>
       <c r="C23">
-        <v>1.73665373937115</v>
+        <v>0.5033555527725753</v>
       </c>
       <c r="D23">
-        <v>0.01547337018673289</v>
+        <v>0.02423799250254177</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.176757806503417</v>
+        <v>1.504999000003266</v>
       </c>
       <c r="G23">
-        <v>0.0007253999430757044</v>
+        <v>0.002407158760324947</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.408841020942475</v>
+        <v>1.801938720866474</v>
       </c>
       <c r="C24">
-        <v>1.4618845678296</v>
+        <v>0.4326369471673388</v>
       </c>
       <c r="D24">
-        <v>0.01603474881653355</v>
+        <v>0.02507384684404101</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.674903436160179</v>
+        <v>1.418080763169314</v>
       </c>
       <c r="G24">
-        <v>0.0007421940467963184</v>
+        <v>0.002415565027075453</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.350130130839602</v>
+        <v>1.528014137225512</v>
       </c>
       <c r="C25">
-        <v>1.177879969762955</v>
+        <v>0.3565230283650749</v>
       </c>
       <c r="D25">
-        <v>0.01768125283348709</v>
+        <v>0.02608375848551781</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.184398175477682</v>
+        <v>1.329222269488668</v>
       </c>
       <c r="G25">
-        <v>0.0007604299606814857</v>
+        <v>0.002425276818243471</v>
       </c>
       <c r="H25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_208/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_208/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.328088799248235</v>
+        <v>3.59866951215605</v>
       </c>
       <c r="C2">
-        <v>0.3005915337488432</v>
+        <v>0.9759351589123071</v>
       </c>
       <c r="D2">
-        <v>0.02691717614016298</v>
+        <v>0.01956295938241581</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.26782495163323</v>
+        <v>1.855334649966082</v>
       </c>
       <c r="G2">
-        <v>0.002432988663422541</v>
+        <v>0.0007741164264036386</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.193643105224794</v>
+        <v>3.101786535662256</v>
       </c>
       <c r="C3">
-        <v>0.262740149758713</v>
+        <v>0.8421454571704032</v>
       </c>
       <c r="D3">
-        <v>0.02753636415298999</v>
+        <v>0.02116663526666684</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.228638135340702</v>
+        <v>1.64762347809372</v>
       </c>
       <c r="G3">
-        <v>0.002438568569355478</v>
+        <v>0.0007836172170709079</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.111593090356678</v>
+        <v>2.80137885555024</v>
       </c>
       <c r="C4">
-        <v>0.2395215065747891</v>
+        <v>0.7611232055460562</v>
       </c>
       <c r="D4">
-        <v>0.0279428179114749</v>
+        <v>0.02228878092934394</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.205743070340091</v>
+        <v>1.526306085392477</v>
       </c>
       <c r="G4">
-        <v>0.002442170173400411</v>
+        <v>0.0007895797928261158</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.07828126715691</v>
+        <v>2.679948868554732</v>
       </c>
       <c r="C5">
-        <v>0.2300648786759609</v>
+        <v>0.7283378427596858</v>
       </c>
       <c r="D5">
-        <v>0.02811497430915111</v>
+        <v>0.0227774031528245</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.196702219728536</v>
+        <v>1.478255163737387</v>
       </c>
       <c r="G5">
-        <v>0.002443682151862876</v>
+        <v>0.0007920444154316445</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.072757323128542</v>
+        <v>2.659840063712579</v>
       </c>
       <c r="C6">
-        <v>0.2284949118759698</v>
+        <v>0.722906467499854</v>
       </c>
       <c r="D6">
-        <v>0.02814395232624989</v>
+        <v>0.02286034331169695</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.195218333684878</v>
+        <v>1.470355256158143</v>
       </c>
       <c r="G6">
-        <v>0.002443935894596592</v>
+        <v>0.0007924558327385105</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.111143334485291</v>
+        <v>2.79973744101909</v>
       </c>
       <c r="C7">
-        <v>0.2393939508685037</v>
+        <v>0.7606801755933361</v>
       </c>
       <c r="D7">
-        <v>0.02794511336970196</v>
+        <v>0.02229524778994119</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.205619977192271</v>
+        <v>1.525652659865401</v>
       </c>
       <c r="G7">
-        <v>0.002442190384804346</v>
+        <v>0.0007896128875630671</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.281627116141408</v>
+        <v>3.426253269843187</v>
       </c>
       <c r="C8">
-        <v>0.2875354753128079</v>
+        <v>0.9295384684713213</v>
       </c>
       <c r="D8">
-        <v>0.02712517013160287</v>
+        <v>0.02008531356351106</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.254068908013267</v>
+        <v>1.782313467781506</v>
       </c>
       <c r="G8">
-        <v>0.002434876282431737</v>
+        <v>0.0007773670155942793</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.620004439777802</v>
+        <v>4.701641294927583</v>
       </c>
       <c r="C9">
-        <v>0.3821427970212312</v>
+        <v>1.272226010533927</v>
       </c>
       <c r="D9">
-        <v>0.02572939304608468</v>
+        <v>0.01700926801195024</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.358516464262038</v>
+        <v>2.343942140086767</v>
       </c>
       <c r="G9">
-        <v>0.002421918690452449</v>
+        <v>0.0007542562295170582</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.871239517756464</v>
+        <v>5.682746500475162</v>
       </c>
       <c r="C10">
-        <v>0.4518168925330315</v>
+        <v>1.535301197584488</v>
       </c>
       <c r="D10">
-        <v>0.02483829542030058</v>
+        <v>0.01578807186044529</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.441278503134072</v>
+        <v>2.806493293589227</v>
       </c>
       <c r="G10">
-        <v>0.002413232988602854</v>
+        <v>0.0007376345729786336</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.986140005250547</v>
+        <v>6.142826035608778</v>
       </c>
       <c r="C11">
-        <v>0.4835595720141441</v>
+        <v>1.658587131597073</v>
       </c>
       <c r="D11">
-        <v>0.02446319247398421</v>
+        <v>0.01553316202616273</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.48029611276641</v>
+        <v>3.031610371166863</v>
       </c>
       <c r="G11">
-        <v>0.002409460578184491</v>
+        <v>0.0007300992128100956</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.029740373998266</v>
+        <v>6.319443821885045</v>
       </c>
       <c r="C12">
-        <v>0.4955872380373307</v>
+        <v>1.705907501191689</v>
       </c>
       <c r="D12">
-        <v>0.02432559549528968</v>
+        <v>0.01548759612222383</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.495272534411953</v>
+        <v>3.119355932799721</v>
       </c>
       <c r="G12">
-        <v>0.002408057600583539</v>
+        <v>0.0007272443761896254</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.020346217090719</v>
+        <v>6.281292102493751</v>
       </c>
       <c r="C13">
-        <v>0.4929965265847045</v>
+        <v>1.695685934319783</v>
       </c>
       <c r="D13">
-        <v>0.02435503019190222</v>
+        <v>0.01549500406913751</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.492038069591729</v>
+        <v>3.100340404786039</v>
       </c>
       <c r="G13">
-        <v>0.002408358622772135</v>
+        <v>0.0007278593669874292</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.989725217470948</v>
+        <v>6.157305844957307</v>
       </c>
       <c r="C14">
-        <v>0.4845489436963817</v>
+        <v>1.662466755520882</v>
       </c>
       <c r="D14">
-        <v>0.02445178262867032</v>
+        <v>0.01552834241708112</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.481524171897547</v>
+        <v>3.038776740757726</v>
       </c>
       <c r="G14">
-        <v>0.002409344643124601</v>
+        <v>0.0007298644031033386</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.970980758251812</v>
+        <v>6.081686185184537</v>
       </c>
       <c r="C15">
-        <v>0.4793755362530874</v>
+        <v>1.64220546191865</v>
       </c>
       <c r="D15">
-        <v>0.02451162817021135</v>
+        <v>0.0155556542206412</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.475110454493091</v>
+        <v>3.001405127079437</v>
       </c>
       <c r="G15">
-        <v>0.002409951932201507</v>
+        <v>0.0007310922034185351</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.863742991564095</v>
+        <v>5.652990293917867</v>
       </c>
       <c r="C16">
-        <v>0.4497434386053669</v>
+        <v>1.527326266412842</v>
       </c>
       <c r="D16">
-        <v>0.02486342629915761</v>
+        <v>0.01581140929195257</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.43875653514678</v>
+        <v>2.792108637555089</v>
       </c>
       <c r="G16">
-        <v>0.002413483108615777</v>
+        <v>0.0007381271317403242</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.798114331581246</v>
+        <v>5.393800947983209</v>
       </c>
       <c r="C17">
-        <v>0.4315776848216046</v>
+        <v>1.457852753002157</v>
       </c>
       <c r="D17">
-        <v>0.02508706090430124</v>
+        <v>0.01605037481469651</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.416808326593667</v>
+        <v>2.667731642701511</v>
       </c>
       <c r="G17">
-        <v>0.002415695046062581</v>
+        <v>0.0007424461020125182</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.760423979538189</v>
+        <v>5.245989656846007</v>
       </c>
       <c r="C18">
-        <v>0.4211336676367523</v>
+        <v>1.41822543637744</v>
       </c>
       <c r="D18">
-        <v>0.0252185322696743</v>
+        <v>0.01621557927873596</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.404312860797418</v>
+        <v>2.597550551165597</v>
       </c>
       <c r="G18">
-        <v>0.002416984129146196</v>
+        <v>0.0007449330471719184</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.747672493373045</v>
+        <v>5.196149417630181</v>
       </c>
       <c r="C19">
-        <v>0.4175982494487016</v>
+        <v>1.404862126519902</v>
       </c>
       <c r="D19">
-        <v>0.02526353157433014</v>
+        <v>0.01627606885915256</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.40010405572626</v>
+        <v>2.574010827916027</v>
       </c>
       <c r="G19">
-        <v>0.002417423486480366</v>
+        <v>0.0007457757046848384</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.805094647504461</v>
+        <v>5.421258112825853</v>
       </c>
       <c r="C20">
-        <v>0.4335109964128492</v>
+        <v>1.465213191450857</v>
       </c>
       <c r="D20">
-        <v>0.02506295973206818</v>
+        <v>0.01602201213854926</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.419131412728035</v>
+        <v>2.680828726160456</v>
       </c>
       <c r="G20">
-        <v>0.002415457840283029</v>
+        <v>0.0007419860860846746</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.998716887221917</v>
+        <v>6.193654937208919</v>
       </c>
       <c r="C21">
-        <v>0.4870299980938171</v>
+        <v>1.672205790631722</v>
       </c>
       <c r="D21">
-        <v>0.02442324265864038</v>
+        <v>0.01551709812646607</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.484606859473274</v>
+        <v>3.056788281387696</v>
       </c>
       <c r="G21">
-        <v>0.002409054332810512</v>
+        <v>0.000729275556903563</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.125786060306609</v>
+        <v>6.712670881841802</v>
       </c>
       <c r="C22">
-        <v>0.5220511815921896</v>
+        <v>1.811255523076341</v>
       </c>
       <c r="D22">
-        <v>0.02403111216542442</v>
+        <v>0.01548886780178904</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.528574276568378</v>
+        <v>3.317291472339832</v>
       </c>
       <c r="G22">
-        <v>0.002405018138138759</v>
+        <v>0.0007209575615195041</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.057918058970188</v>
+        <v>6.434205757629798</v>
       </c>
       <c r="C23">
-        <v>0.5033555527725753</v>
+        <v>1.736653739370979</v>
       </c>
       <c r="D23">
-        <v>0.02423799250254177</v>
+        <v>0.01547337018647355</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.504999000003266</v>
+        <v>3.176757806503502</v>
       </c>
       <c r="G23">
-        <v>0.002407158760324947</v>
+        <v>0.0007253999430083535</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.801938720866474</v>
+        <v>5.408841020942418</v>
       </c>
       <c r="C24">
-        <v>0.4326369471673388</v>
+        <v>1.4618845678296</v>
       </c>
       <c r="D24">
-        <v>0.02507384684404101</v>
+        <v>0.01603474881639144</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.418080763169314</v>
+        <v>2.674903436160207</v>
       </c>
       <c r="G24">
-        <v>0.002415565027075453</v>
+        <v>0.0007421940467370992</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.528014137225512</v>
+        <v>4.350130130839659</v>
       </c>
       <c r="C25">
-        <v>0.3565230283650749</v>
+        <v>1.177879969763012</v>
       </c>
       <c r="D25">
-        <v>0.02608375848551781</v>
+        <v>0.01768125283359723</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.329222269488668</v>
+        <v>2.184398175477654</v>
       </c>
       <c r="G25">
-        <v>0.002425276818243471</v>
+        <v>0.000760429960732778</v>
       </c>
       <c r="H25">
         <v>0</v>
